--- a/ConfigData/Host.xlsx
+++ b/ConfigData/Host.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B349C789-4A3C-4BAC-95AB-31425FAFA9F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C7B53B-006E-486C-9735-F282359BCDDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>proxyIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proxyPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>39.105.123.116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>222.20.95.235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.1.75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +63,10 @@
   </si>
   <si>
     <t>192.168.1.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,7 +405,7 @@
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,89 +416,77 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>124</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>125</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>126</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>9001</v>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Host.xlsx
+++ b/ConfigData/Host.xlsx
@@ -1,86 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C7B53B-006E-486C-9735-F282359BCDDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\HostMonitor\ConfigData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AA9D08-2EFE-4F59-9EC4-A80F0D33F3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxyId</t>
   </si>
   <si>
     <t>39.105.123.116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VX117Halo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rzx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>192.168.1.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proxyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -90,15 +87,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,12 +108,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -130,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -146,7 +170,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -158,7 +182,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -175,7 +199,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -205,12 +229,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -240,6 +281,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,39 +453,40 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -435,13 +494,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -449,13 +508,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>124</v>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -463,13 +522,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>125</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -477,20 +536,20 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>126</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
